--- a/TEMOA_Europe_Results/2_Results_ct+_nuc-/_7_Biorefineries.xlsx
+++ b/TEMOA_Europe_Results/2_Results_ct+_nuc-/_7_Biorefineries.xlsx
@@ -493,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>338.8764667221354</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8072.967139872122</v>
+        <v>7756.468996273141</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -531,10 +531,10 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>164.3423466434416</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>3914.673496938306</v>
+        <v>3761.199950829367</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>4.63216102632212</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>110.3391692625402</v>
+        <v>106.0133567536092</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>7362.089449543593</v>
+        <v>7670.875980963961</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -642,31 +642,31 @@
         <v>14</v>
       </c>
       <c r="D6">
-        <v>138856.2167934873</v>
+        <v>138856.216793488</v>
       </c>
       <c r="E6">
-        <v>123941.6044732089</v>
+        <v>123932.0481051839</v>
       </c>
       <c r="F6">
-        <v>110537.4850056174</v>
+        <v>110501.3381668568</v>
       </c>
       <c r="G6">
-        <v>127701.5539119488</v>
+        <v>127700.8138338845</v>
       </c>
       <c r="H6">
-        <v>105355.4328113069</v>
+        <v>113077.2294714041</v>
       </c>
       <c r="I6">
-        <v>83333.83917905983</v>
+        <v>106874.486164652</v>
       </c>
       <c r="J6">
-        <v>72543.91457756476</v>
+        <v>97075.79574171083</v>
       </c>
       <c r="K6">
-        <v>83343.75284788235</v>
+        <v>103419.1611847291</v>
       </c>
       <c r="L6">
-        <v>86756.81895997221</v>
+        <v>92677.67359182276</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -680,31 +680,31 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <v>3651.799532905319</v>
+        <v>3651.799532905334</v>
       </c>
       <c r="E7">
-        <v>3260.121463772603</v>
+        <v>3260.121463772602</v>
       </c>
       <c r="F7">
-        <v>2907.074999759544</v>
+        <v>2906.090738382264</v>
       </c>
       <c r="G7">
-        <v>3358.441456175482</v>
+        <v>3358.421992756472</v>
       </c>
       <c r="H7">
-        <v>2770.757616863239</v>
+        <v>2973.834253168768</v>
       </c>
       <c r="I7">
-        <v>2191.885135351065</v>
+        <v>2810.70741856678</v>
       </c>
       <c r="J7">
-        <v>1908.26282605485</v>
+        <v>2553.405209777968</v>
       </c>
       <c r="K7">
-        <v>2191.869292918457</v>
+        <v>2721.121027250507</v>
       </c>
       <c r="L7">
-        <v>2281.916822674822</v>
+        <v>2437.343411398801</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -718,31 +718,31 @@
         <v>18</v>
       </c>
       <c r="D8">
-        <v>654.4024762966328</v>
+        <v>654.402476296636</v>
       </c>
       <c r="E8">
         <v>584.2137663080501</v>
       </c>
       <c r="F8">
-        <v>520.9478399569102</v>
+        <v>520.7714603181016</v>
       </c>
       <c r="G8">
-        <v>601.8327089466462</v>
+        <v>601.8292211019598</v>
       </c>
       <c r="H8">
-        <v>496.5197649418923</v>
+        <v>532.9110981678432</v>
       </c>
       <c r="I8">
-        <v>392.7858162549109</v>
+        <v>503.678769407167</v>
       </c>
       <c r="J8">
-        <v>341.960698429029</v>
+        <v>457.5702135922119</v>
       </c>
       <c r="K8">
-        <v>392.7829772909873</v>
+        <v>487.6248880832908</v>
       </c>
       <c r="L8">
-        <v>408.9194946233281</v>
+        <v>436.7719393226651</v>
       </c>
     </row>
   </sheetData>
@@ -807,10 +807,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>56.56434256564967</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1347.375994295045</v>
+        <v>1294.55254121569</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1229.210479176045</v>
+        <v>1281.161565855748</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -880,31 +880,31 @@
         <v>21</v>
       </c>
       <c r="D4">
-        <v>6544.024762966332</v>
+        <v>6544.024762966358</v>
       </c>
       <c r="E4">
-        <v>5842.137663080502</v>
+        <v>5842.137663080504</v>
       </c>
       <c r="F4">
-        <v>5209.478399569103</v>
+        <v>5207.714603181015</v>
       </c>
       <c r="G4">
-        <v>6018.327089466464</v>
+        <v>6018.2922110196</v>
       </c>
       <c r="H4">
-        <v>4965.197649418926</v>
+        <v>5329.110981678433</v>
       </c>
       <c r="I4">
-        <v>3927.858162549109</v>
+        <v>5036.787694071669</v>
       </c>
       <c r="J4">
-        <v>3419.606984290292</v>
+        <v>4575.702135922118</v>
       </c>
       <c r="K4">
-        <v>3927.829772909875</v>
+        <v>4876.248880832909</v>
       </c>
       <c r="L4">
-        <v>4089.194946233281</v>
+        <v>4367.719393226652</v>
       </c>
     </row>
   </sheetData>
